--- a/Shiny_App/SwiftKey-Language-Modelling/flowchart_shiny.xlsx
+++ b/Shiny_App/SwiftKey-Language-Modelling/flowchart_shiny.xlsx
@@ -823,14 +823,20 @@
     </dgm:pt>
     <dgm:pt modelId="{AA6961A8-E493-B745-B45E-D8200FC97B30}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>How are you</a:t>
+            <a:t>How are you?</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -858,13 +864,22 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>how</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -890,80 +905,23 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E8700737-A935-F746-9E14-B90EBD0398F9}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" type="parTrans" cxnId="{3E18F005-200C-2C42-89D6-AD3DE13631CC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F42331DE-60C4-BB49-A40F-046644236E5A}" type="sibTrans" cxnId="{3E18F005-200C-2C42-89D6-AD3DE13631CC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E8BAA47D-8E17-AC47-9DCC-C46496808689}">
+    <dgm:pt modelId="{CF546835-7E34-0346-B03A-C30E8BA62F14}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9065F040-DCA0-2B4B-9991-806899FBC43C}" type="parTrans" cxnId="{1029C09D-D71B-0443-9ADC-6FFE5C8C19E3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D1E3BEA6-B303-374E-A355-EA7FC3A2AB61}" type="sibTrans" cxnId="{1029C09D-D71B-0443-9ADC-6FFE5C8C19E3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CF546835-7E34-0346-B03A-C30E8BA62F14}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>you</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -989,42 +947,16 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{10C735D4-EFF9-7545-B64C-76294FE82408}">
-      <dgm:prSet phldrT="[Text]" phldr="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" type="parTrans" cxnId="{9CEB9564-2AC8-9F44-918A-5D06BF312841}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{99A9BFE2-1B2C-7043-92A1-D89E6C711306}" type="sibTrans" cxnId="{9CEB9564-2AC8-9F44-918A-5D06BF312841}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1060,6 +992,92 @@
     </dgm:pt>
     <dgm:pt modelId="{B8BA369C-1C20-8043-B221-8F6EC65E8652}">
       <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Cleaning</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8A72C39D-E280-A442-96C7-8EEC2499EDCF}" type="parTrans" cxnId="{DE35A61E-3D9C-CB4E-B79B-734DDE9C887F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B2ADA8A2-ABDA-2349-82F3-0BBBFF0DF981}" type="sibTrans" cxnId="{DE35A61E-3D9C-CB4E-B79B-734DDE9C887F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{185230BA-D086-8243-8DFB-77505D18F277}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8CE9D34A-0405-9643-997C-00C863FF1DE2}" type="parTrans" cxnId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AA017591-9710-1744-828A-A6A24DF5D0C7}" type="sibTrans" cxnId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1072,7 +1090,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{8A72C39D-E280-A442-96C7-8EEC2499EDCF}" type="parTrans" cxnId="{DE35A61E-3D9C-CB4E-B79B-734DDE9C887F}">
+    <dgm:pt modelId="{DDC404A3-5139-4444-8F26-0980B1D61F8B}" type="parTrans" cxnId="{A700F2C3-291E-C943-B0D3-21C215120C00}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1083,7 +1101,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B2ADA8A2-ABDA-2349-82F3-0BBBFF0DF981}" type="sibTrans" cxnId="{DE35A61E-3D9C-CB4E-B79B-734DDE9C887F}">
+    <dgm:pt modelId="{01B3D8C2-39A0-EE43-81B3-FB5CD2A7BD9C}" type="sibTrans" cxnId="{A700F2C3-291E-C943-B0D3-21C215120C00}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1094,9 +1112,99 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{185230BA-D086-8243-8DFB-77505D18F277}">
-      <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+    <dgm:pt modelId="{E99A2BDD-3169-F44C-988C-5C63852C666E}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>are</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" type="parTrans" cxnId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DF8CB8F1-F00F-4F47-A7F0-4C145669AD4C}" type="sibTrans" cxnId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{201188B5-932A-7844-ACC0-0CDF665FDCF1}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>4-grams</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" type="parTrans" cxnId="{0A493495-7381-DD42-85C3-A8E4B6D5DA05}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C71A794-A2C6-9842-91BD-C194AC403757}" type="sibTrans" cxnId="{0A493495-7381-DD42-85C3-A8E4B6D5DA05}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58F82E9B-952D-2948-ACED-13AD944455DC}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1105,10 +1213,11 @@
             <a:rPr lang="en-US"/>
             <a:t>Prediction</a:t>
           </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{8CE9D34A-0405-9643-997C-00C863FF1DE2}" type="parTrans" cxnId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" type="parTrans" cxnId="{85EA3D0F-1870-EC4B-B625-0F52FD40A4D8}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1119,7 +1228,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{AA017591-9710-1744-828A-A6A24DF5D0C7}" type="sibTrans" cxnId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}">
+    <dgm:pt modelId="{81BBEFD4-A303-614F-8B31-A7BA5C867A04}" type="sibTrans" cxnId="{85EA3D0F-1870-EC4B-B625-0F52FD40A4D8}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1130,54 +1239,28 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}">
+    <dgm:pt modelId="{D72AB171-7783-F247-8833-C94AC1B81159}">
       <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{DDC404A3-5139-4444-8F26-0980B1D61F8B}" type="parTrans" cxnId="{A700F2C3-291E-C943-B0D3-21C215120C00}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{01B3D8C2-39A0-EE43-81B3-FB5CD2A7BD9C}" type="sibTrans" cxnId="{A700F2C3-291E-C943-B0D3-21C215120C00}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E99A2BDD-3169-F44C-988C-5C63852C666E}">
-      <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>a</a:t>
+            <a:t>3-grams</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" type="parTrans" cxnId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}">
+    <dgm:pt modelId="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" type="parTrans" cxnId="{0E4D1291-7A1B-1141-B4BD-6A9453F614B3}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1188,7 +1271,357 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{DF8CB8F1-F00F-4F47-A7F0-4C145669AD4C}" type="sibTrans" cxnId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}">
+    <dgm:pt modelId="{6893E5D7-30D7-5A4B-B859-50ABD3636740}" type="sibTrans" cxnId="{0E4D1291-7A1B-1141-B4BD-6A9453F614B3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5CC72854-3DD8-184C-922B-756C418C85E5}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2287E360-EA85-7146-8C92-FD93F87DC257}" type="parTrans" cxnId="{5D3CB34D-E96F-B643-B7BA-F95F13CD3D74}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A654ADA9-2AFE-8B42-BC6B-D77EEB0EFE67}" type="sibTrans" cxnId="{5D3CB34D-E96F-B643-B7BA-F95F13CD3D74}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{49E60EA7-E144-A04D-9BEF-62520E03621D}" type="parTrans" cxnId="{1BE2102A-4CB7-284A-977A-44B93751F952}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{019CFB50-E71A-7A4A-84D4-489E10EFF9A3}" type="sibTrans" cxnId="{1BE2102A-4CB7-284A-977A-44B93751F952}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{919C3F4D-1155-B343-9FE2-6A89566F42D6}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>2-grams</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{54F52D63-6B80-E448-AF91-938785196FD1}" type="parTrans" cxnId="{20DFA41E-5160-B447-A6F2-809AD29E20AC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D19FCE2D-9008-B840-9DCA-2CA76015DBAA}" type="sibTrans" cxnId="{20DFA41E-5160-B447-A6F2-809AD29E20AC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EED8C878-045E-9846-950D-15DB38E3DB33}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87AAFE58-9CEE-D044-8FED-040DB450001B}" type="parTrans" cxnId="{3676D836-34D1-2843-873E-2B9886B3F03C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AEA6965-802C-D846-83BE-D86DAB5FF2CB}" type="sibTrans" cxnId="{3676D836-34D1-2843-873E-2B9886B3F03C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C07BB3D-22FD-1E48-B437-3A56E3356257}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-grams</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{08F93B30-14CE-EA42-8059-97C79A7A843E}" type="parTrans" cxnId="{1FE47317-AF53-E04E-BE79-27E6652EC093}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{582993FB-D12F-8646-BF77-D064363B17BA}" type="sibTrans" cxnId="{1FE47317-AF53-E04E-BE79-27E6652EC093}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{23BC0F13-B197-DC40-96BD-1954C9260B14}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Prediction</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C283AA35-CDCC-9649-A357-8B9CB0973683}" type="parTrans" cxnId="{3FD33C81-B78A-9F4C-B54C-F5396B187FC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0F4298A3-A2FF-3E43-845C-0F04A713D102}" type="sibTrans" cxnId="{3FD33C81-B78A-9F4C-B54C-F5396B187FC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1AA4AB9C-1509-3B43-8333-38F39C895B88}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{39274DB1-2B93-F540-95D6-5E0ADB136A5E}" type="parTrans" cxnId="{3F08B5A0-0D45-A64F-82B4-A7743CE9AFCA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0E62774-0C61-494A-8732-C5C7D687C518}" type="sibTrans" cxnId="{3F08B5A0-0D45-A64F-82B4-A7743CE9AFCA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F3F7CF2-404C-AF4C-9353-A1ED2BF4C34F}" type="parTrans" cxnId="{AA7DF62A-6AC6-1945-A807-C1B05F0F0ADE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F98E6EBB-FA28-5247-B437-977034C6D514}" type="sibTrans" cxnId="{AA7DF62A-6AC6-1945-A807-C1B05F0F0ADE}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1210,6 +1643,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{14299573-4D11-B74B-ABBF-EF7632BF4D61}" type="pres">
       <dgm:prSet presAssocID="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" presName="hierFlow" presStyleCnt="0"/>
@@ -1240,6 +1680,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" type="pres">
       <dgm:prSet presAssocID="{AA6961A8-E493-B745-B45E-D8200FC97B30}" presName="hierChild2" presStyleCnt="0"/>
@@ -1248,10 +1695,24 @@
     <dgm:pt modelId="{1FD1ECD5-A72E-6C46-80CF-EA4376E9F1DA}" type="pres">
       <dgm:prSet presAssocID="{964205DC-EF71-7242-AF50-0FC939C57D55}" presName="Name25" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{00093BC4-8A9A-C642-9821-9CA9A872386D}" type="pres">
       <dgm:prSet presAssocID="{964205DC-EF71-7242-AF50-0FC939C57D55}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5C449E9C-6F6D-934A-ABEB-429CF7A55F57}" type="pres">
       <dgm:prSet presAssocID="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" presName="Name30" presStyleCnt="0"/>
@@ -1260,65 +1721,39 @@
     <dgm:pt modelId="{91E5DD8F-C2A7-514F-9A95-1B1C1B650421}" type="pres">
       <dgm:prSet presAssocID="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7F364336-A8CB-9A40-AE7B-842D946BDD69}" type="pres">
       <dgm:prSet presAssocID="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{0A730E32-8AC4-C541-A781-8E5B73137DF5}" type="pres">
-      <dgm:prSet presAssocID="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6C0D24ED-B1EC-624E-B942-038A6A3A8729}" type="pres">
-      <dgm:prSet presAssocID="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D24CAA96-0EDA-724C-8896-9EFA67309B38}" type="pres">
-      <dgm:prSet presAssocID="{E8700737-A935-F746-9E14-B90EBD0398F9}" presName="Name30" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8EECDD60-1ED6-0C49-BC2B-8895FDEB163B}" type="pres">
-      <dgm:prSet presAssocID="{E8700737-A935-F746-9E14-B90EBD0398F9}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{96F1174A-0679-BF42-8DBF-51FA31B1C036}" type="pres">
-      <dgm:prSet presAssocID="{E8700737-A935-F746-9E14-B90EBD0398F9}" presName="hierChild3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{0538F700-A2C0-8C4D-B36E-972C79445133}" type="pres">
-      <dgm:prSet presAssocID="{9065F040-DCA0-2B4B-9991-806899FBC43C}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{23AA2A5C-AEF9-0044-A01B-4963F1D28594}" type="pres">
-      <dgm:prSet presAssocID="{9065F040-DCA0-2B4B-9991-806899FBC43C}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DEE6908A-F428-7941-BBD0-10888061F5D0}" type="pres">
-      <dgm:prSet presAssocID="{E8BAA47D-8E17-AC47-9DCC-C46496808689}" presName="Name30" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F7F88050-8B68-0C4C-A377-E8E2EB6A9DB1}" type="pres">
-      <dgm:prSet presAssocID="{E8BAA47D-8E17-AC47-9DCC-C46496808689}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9A29B3BF-BDE5-F342-81F6-BE736D6E6915}" type="pres">
-      <dgm:prSet presAssocID="{E8BAA47D-8E17-AC47-9DCC-C46496808689}" presName="hierChild3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}" type="pres">
       <dgm:prSet presAssocID="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" presName="Name25" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C9F8053F-F5AC-1F4C-B8A3-1EC55EA1087C}" type="pres">
       <dgm:prSet presAssocID="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{327EBAFF-8EFF-1A47-AA6D-4BDD82FAD7FB}" type="pres">
       <dgm:prSet presAssocID="{E99A2BDD-3169-F44C-988C-5C63852C666E}" presName="Name30" presStyleCnt="0"/>
@@ -1327,18 +1762,255 @@
     <dgm:pt modelId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}" type="pres">
       <dgm:prSet presAssocID="{E99A2BDD-3169-F44C-988C-5C63852C666E}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B98E053-23D9-0B45-95D5-0D573C28D1E4}" type="pres">
       <dgm:prSet presAssocID="{E99A2BDD-3169-F44C-988C-5C63852C666E}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{C5128DC7-E373-FD41-B510-078D55A53D58}" type="pres">
+      <dgm:prSet presAssocID="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{477EC349-E985-6345-BBF4-CEE93E7A5EDA}" type="pres">
+      <dgm:prSet presAssocID="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2DA0B815-D6FA-E545-9472-41AF694DB7F8}" type="pres">
+      <dgm:prSet presAssocID="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0F0BFF25-570A-DC4E-9B71-267713BF3457}" type="pres">
+      <dgm:prSet presAssocID="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" type="pres">
+      <dgm:prSet presAssocID="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60F4B3EC-5504-2747-990F-0F9FEF35D036}" type="pres">
+      <dgm:prSet presAssocID="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1AD57CD-B6C2-634C-9D0D-103B09396288}" type="pres">
+      <dgm:prSet presAssocID="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE88C9FF-3954-8140-AB46-00C4F5C27580}" type="pres">
+      <dgm:prSet presAssocID="{58F82E9B-952D-2948-ACED-13AD944455DC}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E3A23162-DB0F-3A46-923F-328F750E0CD2}" type="pres">
+      <dgm:prSet presAssocID="{58F82E9B-952D-2948-ACED-13AD944455DC}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC05F168-3DE1-234A-BF96-5B177F069C11}" type="pres">
+      <dgm:prSet presAssocID="{58F82E9B-952D-2948-ACED-13AD944455DC}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0847C7A6-9134-7E43-B801-BDAFEEA4AFFC}" type="pres">
+      <dgm:prSet presAssocID="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{804658E4-85AA-2643-951B-A2437AF59340}" type="pres">
+      <dgm:prSet presAssocID="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AAF30EF8-5A09-1749-AF76-0E4FF73207F7}" type="pres">
+      <dgm:prSet presAssocID="{D72AB171-7783-F247-8833-C94AC1B81159}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9CFED002-91F5-524A-8BC7-489CB53E64DC}" type="pres">
+      <dgm:prSet presAssocID="{D72AB171-7783-F247-8833-C94AC1B81159}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{706788AA-8682-7B49-A26C-C5C809809431}" type="pres">
+      <dgm:prSet presAssocID="{D72AB171-7783-F247-8833-C94AC1B81159}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{48FB32D7-4409-B145-8109-CCF0B5A42C26}" type="pres">
+      <dgm:prSet presAssocID="{2287E360-EA85-7146-8C92-FD93F87DC257}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{141CD360-0854-B342-BFC7-05907D232FDB}" type="pres">
+      <dgm:prSet presAssocID="{2287E360-EA85-7146-8C92-FD93F87DC257}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AEE7394F-C828-F945-AE66-21349779FF50}" type="pres">
+      <dgm:prSet presAssocID="{5CC72854-3DD8-184C-922B-756C418C85E5}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8BEFDFB3-08E5-2E4D-9842-D7B918DF73E6}" type="pres">
+      <dgm:prSet presAssocID="{5CC72854-3DD8-184C-922B-756C418C85E5}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{840145DE-D135-F843-97FD-635B8122E17E}" type="pres">
+      <dgm:prSet presAssocID="{5CC72854-3DD8-184C-922B-756C418C85E5}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{603EC75F-9626-1D41-8E56-9D84ECCC9C73}" type="pres">
+      <dgm:prSet presAssocID="{54F52D63-6B80-E448-AF91-938785196FD1}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{12A25052-8F0B-2843-B4E9-4FE78AFB422C}" type="pres">
+      <dgm:prSet presAssocID="{54F52D63-6B80-E448-AF91-938785196FD1}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{85944BD7-89FF-F846-922C-BEB25E7C3576}" type="pres">
+      <dgm:prSet presAssocID="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{65F87129-91F9-FA41-ABA9-67B275B73A54}" type="pres">
+      <dgm:prSet presAssocID="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" type="pres">
+      <dgm:prSet presAssocID="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E1A8DF9C-E03C-CF47-956B-F7DED6CF3F55}" type="pres">
+      <dgm:prSet presAssocID="{87AAFE58-9CEE-D044-8FED-040DB450001B}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2A8CA766-B3B4-5140-8489-6A356D455C84}" type="pres">
+      <dgm:prSet presAssocID="{87AAFE58-9CEE-D044-8FED-040DB450001B}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{18DEF72F-7C9E-8B42-BC98-B3453BE06AD6}" type="pres">
+      <dgm:prSet presAssocID="{EED8C878-045E-9846-950D-15DB38E3DB33}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{643F9B49-72D2-4F4B-8E03-8588AB96C1D5}" type="pres">
+      <dgm:prSet presAssocID="{EED8C878-045E-9846-950D-15DB38E3DB33}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2DC5E9D4-01A7-1D4E-AD54-3F4B40F9A31A}" type="pres">
+      <dgm:prSet presAssocID="{EED8C878-045E-9846-950D-15DB38E3DB33}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{10AB5BAD-2115-2E49-A838-DF501E4E0972}" type="pres">
+      <dgm:prSet presAssocID="{08F93B30-14CE-EA42-8059-97C79A7A843E}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F01F3D6D-EC1B-8640-A110-7F8200634A97}" type="pres">
+      <dgm:prSet presAssocID="{08F93B30-14CE-EA42-8059-97C79A7A843E}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F2C153D7-2F15-8C45-8E41-A967BDDEC5F9}" type="pres">
+      <dgm:prSet presAssocID="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A9151A4-45A3-9D41-941B-5A071337A694}" type="pres">
+      <dgm:prSet presAssocID="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{319AE719-17E5-B945-AC09-568306B27BEB}" type="pres">
+      <dgm:prSet presAssocID="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D8875E6-9DD2-7B43-8DB5-85C4DF040CE4}" type="pres">
+      <dgm:prSet presAssocID="{C283AA35-CDCC-9649-A357-8B9CB0973683}" presName="Name25" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4512BEF1-E77A-0540-95F8-A94CF0054737}" type="pres">
+      <dgm:prSet presAssocID="{C283AA35-CDCC-9649-A357-8B9CB0973683}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D23A62A4-CDDB-DB41-8C76-11987C0D6D07}" type="pres">
+      <dgm:prSet presAssocID="{23BC0F13-B197-DC40-96BD-1954C9260B14}" presName="Name30" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F2800870-9BC2-3347-8CEA-435EF0D70FC2}" type="pres">
+      <dgm:prSet presAssocID="{23BC0F13-B197-DC40-96BD-1954C9260B14}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83F0D9D6-21C7-B248-9559-357524A594E4}" type="pres">
+      <dgm:prSet presAssocID="{23BC0F13-B197-DC40-96BD-1954C9260B14}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}" type="pres">
       <dgm:prSet presAssocID="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" presName="Name25" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E4F6F814-5E22-4A42-BAF8-4A7620B71CB8}" type="pres">
       <dgm:prSet presAssocID="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A47DF023-C9E7-3B43-912C-6414D62A3608}" type="pres">
       <dgm:prSet presAssocID="{CF546835-7E34-0346-B03A-C30E8BA62F14}" presName="Name30" presStyleCnt="0"/>
@@ -1347,31 +2019,18 @@
     <dgm:pt modelId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}" type="pres">
       <dgm:prSet presAssocID="{CF546835-7E34-0346-B03A-C30E8BA62F14}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{857497A5-A569-3045-846F-F8F927FCAD5A}" type="pres">
       <dgm:prSet presAssocID="{CF546835-7E34-0346-B03A-C30E8BA62F14}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{4B0DEC3A-E2E9-2745-ABE2-C92292925769}" type="pres">
-      <dgm:prSet presAssocID="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" presName="Name25" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C5B0190F-40BF-EE44-8075-BD174BF2611F}" type="pres">
-      <dgm:prSet presAssocID="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C8C1B508-97B7-2241-81EB-37C2B9C4A071}" type="pres">
-      <dgm:prSet presAssocID="{10C735D4-EFF9-7545-B64C-76294FE82408}" presName="Name30" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C6EFE6FD-797D-924C-BD2A-F9D929E1CA93}" type="pres">
-      <dgm:prSet presAssocID="{10C735D4-EFF9-7545-B64C-76294FE82408}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{5ABF7972-D5ED-F64E-8C3E-1546A8099084}" type="pres">
-      <dgm:prSet presAssocID="{10C735D4-EFF9-7545-B64C-76294FE82408}" presName="hierChild3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{742102B7-30E9-024E-9605-EEE4B9654A68}" type="pres">
       <dgm:prSet presAssocID="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" presName="bgShapesFlow" presStyleCnt="0"/>
       <dgm:spPr/>
@@ -1381,16 +2040,30 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{10EFFA20-D4FA-1643-A709-8B9826EC80BA}" type="pres">
-      <dgm:prSet presAssocID="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{371A6EC8-B262-744B-9522-7FFBC0362182}" type="pres">
-      <dgm:prSet presAssocID="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="4">
+      <dgm:prSet presAssocID="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="7">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1F9B8F88-B898-D549-8F46-06A57436AE10}" type="pres">
       <dgm:prSet presAssocID="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" presName="spComp" presStyleCnt="0"/>
@@ -1405,16 +2078,30 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8C9DA1E2-BCF8-7F40-83B8-7C7391D41A73}" type="pres">
-      <dgm:prSet presAssocID="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{653C35A2-B847-8B47-86CB-45F211F4269C}" type="pres">
-      <dgm:prSet presAssocID="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="4">
+      <dgm:prSet presAssocID="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="1" presStyleCnt="7">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B473AA32-BA32-4B48-B1D1-AB3E621B5D65}" type="pres">
       <dgm:prSet presAssocID="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" presName="spComp" presStyleCnt="0"/>
@@ -1429,16 +2116,30 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{48B19731-57BA-A04C-B7A3-99D343277252}" type="pres">
-      <dgm:prSet presAssocID="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8BE0461D-2896-1448-8536-F7E5356CAD4C}" type="pres">
-      <dgm:prSet presAssocID="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="4">
+      <dgm:prSet presAssocID="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="2" presStyleCnt="7">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7B42CDE4-D3CD-0C4E-A521-0F0E279930BA}" type="pres">
       <dgm:prSet presAssocID="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" presName="spComp" presStyleCnt="0"/>
@@ -1453,58 +2154,215 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB0BAD8A-2FB5-9342-B416-49E7257E3405}" type="pres">
-      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="3" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3CDA8B0E-045B-444C-A89B-90AB0CEBBFAB}" type="pres">
-      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="3" presStyleCnt="4">
+      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="3" presStyleCnt="7">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F35236F-F109-C948-B2A7-52E65218C519}" type="pres">
+      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="spComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{38D78505-440A-004C-B9BE-35BC13F016C2}" type="pres">
+      <dgm:prSet presAssocID="{185230BA-D086-8243-8DFB-77505D18F277}" presName="hSp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A7B096B-89CF-1146-A505-8B4D1AD5B9CF}" type="pres">
+      <dgm:prSet presAssocID="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{52715653-6554-8C4C-99D8-E99D40A91C78}" type="pres">
+      <dgm:prSet presAssocID="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{51D9F27B-AE9B-9542-9EF2-3B442434BC59}" type="pres">
+      <dgm:prSet presAssocID="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="4" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6EBDE070-0E1D-E64F-8A26-697DFCF8D2B8}" type="pres">
+      <dgm:prSet presAssocID="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" presName="spComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5CE179F5-1A77-FD46-A9BB-6D625F4A40AA}" type="pres">
+      <dgm:prSet presAssocID="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" presName="hSp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{138BBCDD-3429-5041-BFD1-19FA07924CB3}" type="pres">
+      <dgm:prSet presAssocID="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE306CB4-A08A-F940-BAD0-EF7D741A5BB6}" type="pres">
+      <dgm:prSet presAssocID="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8AA9AD4C-1230-EC40-8183-B17307157DE0}" type="pres">
+      <dgm:prSet presAssocID="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="5" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{21B76C83-53E1-8D47-90C6-86FE2AA23EA8}" type="pres">
+      <dgm:prSet presAssocID="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" presName="spComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{626AC8E0-05B6-1F41-82E0-8705E5C56CA2}" type="pres">
+      <dgm:prSet presAssocID="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" presName="hSp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E48C6E6-C30E-AE43-A746-6126628BC211}" type="pres">
+      <dgm:prSet presAssocID="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" presName="rectComp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A09B1F7D-C13D-E14A-B494-C12E60DBA081}" type="pres">
+      <dgm:prSet presAssocID="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D49342E3-2E31-434E-80F2-4EAB6633579B}" type="pres">
+      <dgm:prSet presAssocID="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" presName="bgRectTx" presStyleLbl="bgShp" presStyleIdx="6" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{5D3CB34D-E96F-B643-B7BA-F95F13CD3D74}" srcId="{D72AB171-7783-F247-8833-C94AC1B81159}" destId="{5CC72854-3DD8-184C-922B-756C418C85E5}" srcOrd="0" destOrd="0" parTransId="{2287E360-EA85-7146-8C92-FD93F87DC257}" sibTransId="{A654ADA9-2AFE-8B42-BC6B-D77EEB0EFE67}"/>
+    <dgm:cxn modelId="{465FB3D0-2619-5D49-AEA7-74EE5A3ACCA5}" type="presOf" srcId="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" destId="{C5128DC7-E373-FD41-B510-078D55A53D58}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{185230BA-D086-8243-8DFB-77505D18F277}" srcOrd="4" destOrd="0" parTransId="{8CE9D34A-0405-9643-997C-00C863FF1DE2}" sibTransId="{AA017591-9710-1744-828A-A6A24DF5D0C7}"/>
+    <dgm:cxn modelId="{559AF30D-6783-074B-953B-7EAFFD059CB9}" type="presOf" srcId="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" destId="{65F87129-91F9-FA41-ABA9-67B275B73A54}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{29638135-A843-674B-B6C1-6F23AF088829}" type="presOf" srcId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" destId="{48B19731-57BA-A04C-B7A3-99D343277252}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{545C7593-7AEE-5B44-B5EF-57B1D1FCFADE}" type="presOf" srcId="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" destId="{60F4B3EC-5504-2747-990F-0F9FEF35D036}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5751003B-E430-7E43-BB3B-A6BC884903D4}" type="presOf" srcId="{87AAFE58-9CEE-D044-8FED-040DB450001B}" destId="{E1A8DF9C-E03C-CF47-956B-F7DED6CF3F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{85EA3D0F-1870-EC4B-B625-0F52FD40A4D8}" srcId="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" destId="{58F82E9B-952D-2948-ACED-13AD944455DC}" srcOrd="0" destOrd="0" parTransId="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" sibTransId="{81BBEFD4-A303-614F-8B31-A7BA5C867A04}"/>
+    <dgm:cxn modelId="{16DA59E3-2B9C-3749-966C-3A06182E0777}" type="presOf" srcId="{2287E360-EA85-7146-8C92-FD93F87DC257}" destId="{48FB32D7-4409-B145-8109-CCF0B5A42C26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A700F2C3-291E-C943-B0D3-21C215120C00}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" srcOrd="3" destOrd="0" parTransId="{DDC404A3-5139-4444-8F26-0980B1D61F8B}" sibTransId="{01B3D8C2-39A0-EE43-81B3-FB5CD2A7BD9C}"/>
+    <dgm:cxn modelId="{2F0844BE-0532-734B-9AB9-7CE173ACC7FA}" type="presOf" srcId="{08F93B30-14CE-EA42-8059-97C79A7A843E}" destId="{10AB5BAD-2115-2E49-A838-DF501E4E0972}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7AD160A2-19CB-0B43-8E43-A86B2FECE7B9}" type="presOf" srcId="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" destId="{0F0BFF25-570A-DC4E-9B71-267713BF3457}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5E5B9A93-36BA-434B-AF66-D2BD1096A2CB}" type="presOf" srcId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" destId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3F08B5A0-0D45-A64F-82B4-A7743CE9AFCA}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" srcOrd="6" destOrd="0" parTransId="{39274DB1-2B93-F540-95D6-5E0ADB136A5E}" sibTransId="{A0E62774-0C61-494A-8732-C5C7D687C518}"/>
+    <dgm:cxn modelId="{7E9CB01D-12FE-B248-9B2F-A5EC4A4D12B7}" type="presOf" srcId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" destId="{371A6EC8-B262-744B-9522-7FFBC0362182}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{79B1962B-04BF-9E48-A0CE-06F7371DE647}" type="presOf" srcId="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" destId="{804658E4-85AA-2643-951B-A2437AF59340}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1991961A-71B6-AD42-9665-60F787B14B4D}" type="presOf" srcId="{58F82E9B-952D-2948-ACED-13AD944455DC}" destId="{E3A23162-DB0F-3A46-923F-328F750E0CD2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8A2AC331-F0F4-DF48-9061-30097B77B9D3}" type="presOf" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{DCD2EB7B-C116-AE41-BB0D-96D6CC5FD504}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5D7470E4-8AB0-874C-A72E-155E8021131D}" type="presOf" srcId="{2287E360-EA85-7146-8C92-FD93F87DC257}" destId="{141CD360-0854-B342-BFC7-05907D232FDB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1FE47317-AF53-E04E-BE79-27E6652EC093}" srcId="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" destId="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" srcOrd="1" destOrd="0" parTransId="{08F93B30-14CE-EA42-8059-97C79A7A843E}" sibTransId="{582993FB-D12F-8646-BF77-D064363B17BA}"/>
+    <dgm:cxn modelId="{20DFA41E-5160-B447-A6F2-809AD29E20AC}" srcId="{D72AB171-7783-F247-8833-C94AC1B81159}" destId="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" srcOrd="1" destOrd="0" parTransId="{54F52D63-6B80-E448-AF91-938785196FD1}" sibTransId="{D19FCE2D-9008-B840-9DCA-2CA76015DBAA}"/>
+    <dgm:cxn modelId="{4F83E3CD-D006-304D-87D1-B23A16A81AF7}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" srcOrd="0" destOrd="0" parTransId="{81EC5285-7445-6549-BCE3-3B49E621AE4A}" sibTransId="{963D6A31-D359-2040-861A-4741C4A0F1C5}"/>
+    <dgm:cxn modelId="{AFA5F583-85BF-8B46-98A8-4877EAFC12C0}" type="presOf" srcId="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" destId="{477EC349-E985-6345-BBF4-CEE93E7A5EDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{7BF4B52D-0D59-5341-B8D0-B476970A51E5}" type="presOf" srcId="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" destId="{52715653-6554-8C4C-99D8-E99D40A91C78}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B13BC963-A3AC-E149-A816-9893CB49B7D4}" type="presOf" srcId="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" destId="{8C9DA1E2-BCF8-7F40-83B8-7C7391D41A73}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{11205CBA-9F70-2143-A385-A41E2184CA82}" type="presOf" srcId="{23BC0F13-B197-DC40-96BD-1954C9260B14}" destId="{F2800870-9BC2-3347-8CEA-435EF0D70FC2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1BE2102A-4CB7-284A-977A-44B93751F952}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" srcOrd="5" destOrd="0" parTransId="{49E60EA7-E144-A04D-9BEF-62520E03621D}" sibTransId="{019CFB50-E71A-7A4A-84D4-489E10EFF9A3}"/>
+    <dgm:cxn modelId="{418DAE1F-C2DA-6F48-AF11-D6DD9A214A93}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" srcOrd="1" destOrd="0" parTransId="{EC8F7A11-F14F-8049-B71A-B08951A82104}" sibTransId="{F9C67E05-B039-7E42-806D-A2DE601868E5}"/>
+    <dgm:cxn modelId="{D51475CA-92AA-3C4E-B81F-520364A0CE11}" type="presOf" srcId="{54F52D63-6B80-E448-AF91-938785196FD1}" destId="{12A25052-8F0B-2843-B4E9-4FE78AFB422C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{DE35A61E-3D9C-CB4E-B79B-734DDE9C887F}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" srcOrd="2" destOrd="0" parTransId="{8A72C39D-E280-A442-96C7-8EEC2499EDCF}" sibTransId="{B2ADA8A2-ABDA-2349-82F3-0BBBFF0DF981}"/>
+    <dgm:cxn modelId="{4CDEEE63-5A68-AD46-8B20-6F1112E542D6}" type="presOf" srcId="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" destId="{AE306CB4-A08A-F940-BAD0-EF7D741A5BB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0A493495-7381-DD42-85C3-A8E4B6D5DA05}" srcId="{E99A2BDD-3169-F44C-988C-5C63852C666E}" destId="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" srcOrd="0" destOrd="0" parTransId="{B2F7717E-A32E-A241-B080-8C6F3DA4572A}" sibTransId="{0C71A794-A2C6-9842-91BD-C194AC403757}"/>
+    <dgm:cxn modelId="{13C18543-F0DE-D741-9E71-C20DE0955B69}" type="presOf" srcId="{E99A2BDD-3169-F44C-988C-5C63852C666E}" destId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{80B7D4BB-E4FE-5845-9063-2507FC3D03DF}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{CF546835-7E34-0346-B03A-C30E8BA62F14}" srcOrd="2" destOrd="0" parTransId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" sibTransId="{E06B8498-7222-CB41-A08C-DE59D26D8214}"/>
+    <dgm:cxn modelId="{AF1D503F-BF0F-6C4F-A214-8C52D5EB292F}" type="presOf" srcId="{964205DC-EF71-7242-AF50-0FC939C57D55}" destId="{00093BC4-8A9A-C642-9821-9CA9A872386D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3FD33C81-B78A-9F4C-B54C-F5396B187FC8}" srcId="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" destId="{23BC0F13-B197-DC40-96BD-1954C9260B14}" srcOrd="0" destOrd="0" parTransId="{C283AA35-CDCC-9649-A357-8B9CB0973683}" sibTransId="{0F4298A3-A2FF-3E43-845C-0F04A713D102}"/>
+    <dgm:cxn modelId="{59089D85-A0C0-3E47-A3D3-18D6328CA224}" type="presOf" srcId="{185230BA-D086-8243-8DFB-77505D18F277}" destId="{AB0BAD8A-2FB5-9342-B416-49E7257E3405}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A0C9DCD4-3C41-E240-B2B1-AD070424DF9F}" type="presOf" srcId="{2C65357E-3C8B-F545-9CE7-C247FFF320A7}" destId="{D1AD57CD-B6C2-634C-9D0D-103B09396288}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0E4D1291-7A1B-1141-B4BD-6A9453F614B3}" srcId="{201188B5-932A-7844-ACC0-0CDF665FDCF1}" destId="{D72AB171-7783-F247-8833-C94AC1B81159}" srcOrd="1" destOrd="0" parTransId="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" sibTransId="{6893E5D7-30D7-5A4B-B859-50ABD3636740}"/>
+    <dgm:cxn modelId="{AA59F2FD-5FB7-484A-8F7D-63B6098AE69C}" type="presOf" srcId="{08F93B30-14CE-EA42-8059-97C79A7A843E}" destId="{F01F3D6D-EC1B-8640-A110-7F8200634A97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{87E37A4F-1458-8348-8DFC-2052F0E2FEF4}" type="presOf" srcId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" destId="{91E5DD8F-C2A7-514F-9A95-1B1C1B650421}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1D5486EF-0220-7049-BC2C-B3D62A20F36A}" type="presOf" srcId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" destId="{E4F6F814-5E22-4A42-BAF8-4A7620B71CB8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{E9DE7ABF-0E92-B742-9B74-48C895BB48DD}" type="presOf" srcId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" destId="{10EFFA20-D4FA-1643-A709-8B9826EC80BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{80B7D4BB-E4FE-5845-9063-2507FC3D03DF}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{CF546835-7E34-0346-B03A-C30E8BA62F14}" srcOrd="2" destOrd="0" parTransId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" sibTransId="{E06B8498-7222-CB41-A08C-DE59D26D8214}"/>
-    <dgm:cxn modelId="{249E78E2-F775-F747-B10A-EA18CBC5D052}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" srcOrd="0" destOrd="0" parTransId="{964205DC-EF71-7242-AF50-0FC939C57D55}" sibTransId="{85FDC6FE-FC7F-DE40-9F22-29AE7C629399}"/>
-    <dgm:cxn modelId="{D33882E7-7775-B64E-BA3A-F4CF0EEE56A5}" type="presOf" srcId="{964205DC-EF71-7242-AF50-0FC939C57D55}" destId="{1FD1ECD5-A72E-6C46-80CF-EA4376E9F1DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{87E37A4F-1458-8348-8DFC-2052F0E2FEF4}" type="presOf" srcId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" destId="{91E5DD8F-C2A7-514F-9A95-1B1C1B650421}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3168FDFC-BD95-F54F-BD92-910C8CFCA195}" type="presOf" srcId="{E8700737-A935-F746-9E14-B90EBD0398F9}" destId="{8EECDD60-1ED6-0C49-BC2B-8895FDEB163B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{1D5486EF-0220-7049-BC2C-B3D62A20F36A}" type="presOf" srcId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" destId="{E4F6F814-5E22-4A42-BAF8-4A7620B71CB8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3A8E1639-01D0-424E-AED4-8D10A418BC30}" type="presOf" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{B8FDCBAB-54DE-C041-8A27-A5E044BA33D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{98A04606-2628-6241-8AAC-E502EF5AE31D}" type="presOf" srcId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" destId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{8A45DE9E-440C-5A4B-BFEB-D8F4B1D4C0AE}" type="presOf" srcId="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" destId="{653C35A2-B847-8B47-86CB-45F211F4269C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{A9C8BEE7-F761-724B-B7D4-A810A873AC99}" type="presOf" srcId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" destId="{C9F8053F-F5AC-1F4C-B8A3-1EC55EA1087C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9CEB9564-2AC8-9F44-918A-5D06BF312841}" srcId="{CF546835-7E34-0346-B03A-C30E8BA62F14}" destId="{10C735D4-EFF9-7545-B64C-76294FE82408}" srcOrd="0" destOrd="0" parTransId="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" sibTransId="{99A9BFE2-1B2C-7043-92A1-D89E6C711306}"/>
-    <dgm:cxn modelId="{1029C09D-D71B-0443-9ADC-6FFE5C8C19E3}" srcId="{E8700737-A935-F746-9E14-B90EBD0398F9}" destId="{E8BAA47D-8E17-AC47-9DCC-C46496808689}" srcOrd="0" destOrd="0" parTransId="{9065F040-DCA0-2B4B-9991-806899FBC43C}" sibTransId="{D1E3BEA6-B303-374E-A355-EA7FC3A2AB61}"/>
+    <dgm:cxn modelId="{00F7EB92-E5EF-624E-91B0-56CF8BAF4740}" type="presOf" srcId="{87AAFE58-9CEE-D044-8FED-040DB450001B}" destId="{2A8CA766-B3B4-5140-8489-6A356D455C84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{E99A2BDD-3169-F44C-988C-5C63852C666E}" srcOrd="1" destOrd="0" parTransId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" sibTransId="{DF8CB8F1-F00F-4F47-A7F0-4C145669AD4C}"/>
+    <dgm:cxn modelId="{3676D836-34D1-2843-873E-2B9886B3F03C}" srcId="{919C3F4D-1155-B343-9FE2-6A89566F42D6}" destId="{EED8C878-045E-9846-950D-15DB38E3DB33}" srcOrd="0" destOrd="0" parTransId="{87AAFE58-9CEE-D044-8FED-040DB450001B}" sibTransId="{7AEA6965-802C-D846-83BE-D86DAB5FF2CB}"/>
     <dgm:cxn modelId="{63E9E78F-7239-8E4C-943A-9D7399578635}" type="presOf" srcId="{185230BA-D086-8243-8DFB-77505D18F277}" destId="{3CDA8B0E-045B-444C-A89B-90AB0CEBBFAB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{B13BC963-A3AC-E149-A816-9893CB49B7D4}" type="presOf" srcId="{B8BA369C-1C20-8043-B221-8F6EC65E8652}" destId="{8C9DA1E2-BCF8-7F40-83B8-7C7391D41A73}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{B393ECD2-B90B-6F4A-8C91-8C38F50557BC}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{185230BA-D086-8243-8DFB-77505D18F277}" srcOrd="4" destOrd="0" parTransId="{8CE9D34A-0405-9643-997C-00C863FF1DE2}" sibTransId="{AA017591-9710-1744-828A-A6A24DF5D0C7}"/>
-    <dgm:cxn modelId="{29638135-A843-674B-B6C1-6F23AF088829}" type="presOf" srcId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" destId="{48B19731-57BA-A04C-B7A3-99D343277252}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{8A2AC331-F0F4-DF48-9061-30097B77B9D3}" type="presOf" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{DCD2EB7B-C116-AE41-BB0D-96D6CC5FD504}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{8C1A0C9B-B74E-264E-97DF-230E4E22666B}" type="presOf" srcId="{E8BAA47D-8E17-AC47-9DCC-C46496808689}" destId="{F7F88050-8B68-0C4C-A377-E8E2EB6A9DB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3E18F005-200C-2C42-89D6-AD3DE13631CC}" srcId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" destId="{E8700737-A935-F746-9E14-B90EBD0398F9}" srcOrd="0" destOrd="0" parTransId="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" sibTransId="{F42331DE-60C4-BB49-A40F-046644236E5A}"/>
-    <dgm:cxn modelId="{418DAE1F-C2DA-6F48-AF11-D6DD9A214A93}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" srcOrd="1" destOrd="0" parTransId="{EC8F7A11-F14F-8049-B71A-B08951A82104}" sibTransId="{F9C67E05-B039-7E42-806D-A2DE601868E5}"/>
-    <dgm:cxn modelId="{0CB1D537-CFC1-E44E-9D06-FA285EF1C42B}" type="presOf" srcId="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" destId="{4B0DEC3A-E2E9-2745-ABE2-C92292925769}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{04C7E349-7898-304B-962F-409068E36A20}" type="presOf" srcId="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" destId="{0A730E32-8AC4-C541-A781-8E5B73137DF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{51986F7B-B923-C543-A1AB-9797453177E1}" type="presOf" srcId="{B39BDB0A-FBA8-6F4E-A9F0-B2210E3B6574}" destId="{6C0D24ED-B1EC-624E-B942-038A6A3A8729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{54D65D3A-3D60-EF48-8598-B19D3467E21D}" type="presOf" srcId="{10C735D4-EFF9-7545-B64C-76294FE82408}" destId="{C6EFE6FD-797D-924C-BD2A-F9D929E1CA93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{4F83E3CD-D006-304D-87D1-B23A16A81AF7}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" srcOrd="0" destOrd="0" parTransId="{81EC5285-7445-6549-BCE3-3B49E621AE4A}" sibTransId="{963D6A31-D359-2040-861A-4741C4A0F1C5}"/>
-    <dgm:cxn modelId="{AF1D503F-BF0F-6C4F-A214-8C52D5EB292F}" type="presOf" srcId="{964205DC-EF71-7242-AF50-0FC939C57D55}" destId="{00093BC4-8A9A-C642-9821-9CA9A872386D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{A700F2C3-291E-C943-B0D3-21C215120C00}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" srcOrd="3" destOrd="0" parTransId="{DDC404A3-5139-4444-8F26-0980B1D61F8B}" sibTransId="{01B3D8C2-39A0-EE43-81B3-FB5CD2A7BD9C}"/>
-    <dgm:cxn modelId="{DB9B576A-FD03-4D4F-92C2-89CA58FBBADA}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{E99A2BDD-3169-F44C-988C-5C63852C666E}" srcOrd="1" destOrd="0" parTransId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" sibTransId="{DF8CB8F1-F00F-4F47-A7F0-4C145669AD4C}"/>
-    <dgm:cxn modelId="{38116CF5-675E-8441-B3FA-B25914D5C558}" type="presOf" srcId="{CED85981-CA5A-9C46-9AC2-220B0B36F0B0}" destId="{C5B0190F-40BF-EE44-8075-BD174BF2611F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AB15F16A-5120-4F4D-9812-9BBFE02DE0BA}" type="presOf" srcId="{8C07BB3D-22FD-1E48-B437-3A56E3356257}" destId="{5A9151A4-45A3-9D41-941B-5A071337A694}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5D192269-8BFA-A046-A0F1-5FC4B8242F43}" type="presOf" srcId="{54F52D63-6B80-E448-AF91-938785196FD1}" destId="{603EC75F-9626-1D41-8E56-9D84ECCC9C73}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FDDF30F8-2AB9-B341-BF41-4F0CCBABBA8B}" type="presOf" srcId="{16F8A283-7901-E54A-AE3C-4B7DC1D51CBD}" destId="{51D9F27B-AE9B-9542-9EF2-3B442434BC59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{3A8E1639-01D0-424E-AED4-8D10A418BC30}" type="presOf" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{B8FDCBAB-54DE-C041-8A27-A5E044BA33D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C2D9BBC6-4CE0-F84D-B16B-E0CB1F3C7EEF}" type="presOf" srcId="{81C241F2-66E4-1344-A0E1-94C5A4EA3C1E}" destId="{0847C7A6-9134-7E43-B801-BDAFEEA4AFFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{69BE8622-8F75-0D44-BCF6-25225F16E952}" type="presOf" srcId="{CF546835-7E34-0346-B03A-C30E8BA62F14}" destId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{249E78E2-F775-F747-B10A-EA18CBC5D052}" srcId="{AA6961A8-E493-B745-B45E-D8200FC97B30}" destId="{38EEF6B0-8DDA-4540-894A-41EB923D2407}" srcOrd="0" destOrd="0" parTransId="{964205DC-EF71-7242-AF50-0FC939C57D55}" sibTransId="{85FDC6FE-FC7F-DE40-9F22-29AE7C629399}"/>
+    <dgm:cxn modelId="{2439DFDF-373D-A647-B182-113B97C09908}" type="presOf" srcId="{D72AB171-7783-F247-8833-C94AC1B81159}" destId="{9CFED002-91F5-524A-8BC7-489CB53E64DC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6F5C958D-237F-974F-B1F7-D43A52193A1B}" type="presOf" srcId="{5CC72854-3DD8-184C-922B-756C418C85E5}" destId="{8BEFDFB3-08E5-2E4D-9842-D7B918DF73E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{35A62AD1-4396-1447-B9F3-FC155B126ECD}" type="presOf" srcId="{C283AA35-CDCC-9649-A357-8B9CB0973683}" destId="{3D8875E6-9DD2-7B43-8DB5-85C4DF040CE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2706DEB0-C3CA-3043-80E0-D122361AE39E}" type="presOf" srcId="{1AA4AB9C-1509-3B43-8333-38F39C895B88}" destId="{8AA9AD4C-1230-EC40-8183-B17307157DE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{649A19CB-783B-6E45-A590-62C645D3D617}" type="presOf" srcId="{0017C8D1-0683-EA49-976C-7CE9B7F394C0}" destId="{8BE0461D-2896-1448-8536-F7E5356CAD4C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{5AE672CE-BB79-3042-AAFE-2FFB1A71350F}" type="presOf" srcId="{9065F040-DCA0-2B4B-9991-806899FBC43C}" destId="{23AA2A5C-AEF9-0044-A01B-4963F1D28594}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{7E9CB01D-12FE-B248-9B2F-A5EC4A4D12B7}" type="presOf" srcId="{45F728BC-4862-5E4B-AF14-C1AD0E3FC51A}" destId="{371A6EC8-B262-744B-9522-7FFBC0362182}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{13C18543-F0DE-D741-9E71-C20DE0955B69}" type="presOf" srcId="{E99A2BDD-3169-F44C-988C-5C63852C666E}" destId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{9030EAC4-CFB5-1042-B2D0-28ECBC3F3B36}" type="presOf" srcId="{9065F040-DCA0-2B4B-9991-806899FBC43C}" destId="{0538F700-A2C0-8C4D-B36E-972C79445133}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{59089D85-A0C0-3E47-A3D3-18D6328CA224}" type="presOf" srcId="{185230BA-D086-8243-8DFB-77505D18F277}" destId="{AB0BAD8A-2FB5-9342-B416-49E7257E3405}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{69BE8622-8F75-0D44-BCF6-25225F16E952}" type="presOf" srcId="{CF546835-7E34-0346-B03A-C30E8BA62F14}" destId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{5E5B9A93-36BA-434B-AF66-D2BD1096A2CB}" type="presOf" srcId="{55DCE6BD-DAA1-ED41-B03F-B080E3C24818}" destId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{98A04606-2628-6241-8AAC-E502EF5AE31D}" type="presOf" srcId="{06FC35A2-8A2D-F44A-A92C-B3635B84A645}" destId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D33882E7-7775-B64E-BA3A-F4CF0EEE56A5}" type="presOf" srcId="{964205DC-EF71-7242-AF50-0FC939C57D55}" destId="{1FD1ECD5-A72E-6C46-80CF-EA4376E9F1DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6BE036A3-6998-0D48-8E35-1489CA5BCADC}" type="presOf" srcId="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" destId="{D49342E3-2E31-434E-80F2-4EAB6633579B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{50B13655-5758-9540-8F2D-DC4C7E5EAA00}" type="presOf" srcId="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" destId="{A09B1F7D-C13D-E14A-B494-C12E60DBA081}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AA7DF62A-6AC6-1945-A807-C1B05F0F0ADE}" srcId="{1DD8DB84-31DA-8E40-B626-E900BD3BDA49}" destId="{AB6E5F92-86C6-3942-ABA0-FB385CED94AF}" srcOrd="7" destOrd="0" parTransId="{2F3F7CF2-404C-AF4C-9353-A1ED2BF4C34F}" sibTransId="{F98E6EBB-FA28-5247-B437-977034C6D514}"/>
+    <dgm:cxn modelId="{D53CE4A7-9C3E-AF4A-8AB2-55635149761E}" type="presOf" srcId="{C283AA35-CDCC-9649-A357-8B9CB0973683}" destId="{4512BEF1-E77A-0540-95F8-A94CF0054737}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A8AFB262-D5F7-CE45-8385-ABCA605BD6BB}" type="presOf" srcId="{EED8C878-045E-9846-950D-15DB38E3DB33}" destId="{643F9B49-72D2-4F4B-8E03-8588AB96C1D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{7960CA01-5FC6-7740-8107-342018DB76F2}" type="presParOf" srcId="{DCD2EB7B-C116-AE41-BB0D-96D6CC5FD504}" destId="{14299573-4D11-B74B-ABBF-EF7632BF4D61}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{37BC2D4D-9BDC-DD40-9E9C-552D6181EE39}" type="presParOf" srcId="{14299573-4D11-B74B-ABBF-EF7632BF4D61}" destId="{A8A6C05E-B91E-1445-8488-FE49412BB7D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{2D272C3B-DB71-4447-86BA-24E757F94B02}" type="presParOf" srcId="{14299573-4D11-B74B-ABBF-EF7632BF4D61}" destId="{AACF1A07-AD71-3B4A-88D9-1D04CBE99D0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -1516,31 +2374,56 @@
     <dgm:cxn modelId="{F9FEDA2B-E375-5545-B771-6BB532198EB4}" type="presParOf" srcId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" destId="{5C449E9C-6F6D-934A-ABEB-429CF7A55F57}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{8D36360D-A281-AE4A-975D-408FBD193B97}" type="presParOf" srcId="{5C449E9C-6F6D-934A-ABEB-429CF7A55F57}" destId="{91E5DD8F-C2A7-514F-9A95-1B1C1B650421}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{570F86DE-FD22-EC40-9483-2BA1C1748807}" type="presParOf" srcId="{5C449E9C-6F6D-934A-ABEB-429CF7A55F57}" destId="{7F364336-A8CB-9A40-AE7B-842D946BDD69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3C4EA5FB-422F-574C-9DD8-056C90DF7021}" type="presParOf" srcId="{7F364336-A8CB-9A40-AE7B-842D946BDD69}" destId="{0A730E32-8AC4-C541-A781-8E5B73137DF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{1521168C-107A-D14F-A1DA-E1317AD9FE66}" type="presParOf" srcId="{0A730E32-8AC4-C541-A781-8E5B73137DF5}" destId="{6C0D24ED-B1EC-624E-B942-038A6A3A8729}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{F3F47B00-6FD1-1242-B88B-DDA92ED580BD}" type="presParOf" srcId="{7F364336-A8CB-9A40-AE7B-842D946BDD69}" destId="{D24CAA96-0EDA-724C-8896-9EFA67309B38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{B50CEF1D-CCC1-2243-99F2-E3CE8CE74050}" type="presParOf" srcId="{D24CAA96-0EDA-724C-8896-9EFA67309B38}" destId="{8EECDD60-1ED6-0C49-BC2B-8895FDEB163B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{723E66F3-3613-E94A-AB3B-4892ED80A8C0}" type="presParOf" srcId="{D24CAA96-0EDA-724C-8896-9EFA67309B38}" destId="{96F1174A-0679-BF42-8DBF-51FA31B1C036}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{30BAEC32-D7CC-4A44-A138-3B822C5B8775}" type="presParOf" srcId="{96F1174A-0679-BF42-8DBF-51FA31B1C036}" destId="{0538F700-A2C0-8C4D-B36E-972C79445133}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{7A5D5D95-F05C-654E-8793-37C2CC2E5501}" type="presParOf" srcId="{0538F700-A2C0-8C4D-B36E-972C79445133}" destId="{23AA2A5C-AEF9-0044-A01B-4963F1D28594}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{E4357C66-6D3D-C74D-A8BD-4F38854ABEF4}" type="presParOf" srcId="{96F1174A-0679-BF42-8DBF-51FA31B1C036}" destId="{DEE6908A-F428-7941-BBD0-10888061F5D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{DBC9AC58-3776-7D41-8F51-FF42073D2C76}" type="presParOf" srcId="{DEE6908A-F428-7941-BBD0-10888061F5D0}" destId="{F7F88050-8B68-0C4C-A377-E8E2EB6A9DB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{3C44DAB9-0A0E-CF40-9482-07C9233C354A}" type="presParOf" srcId="{DEE6908A-F428-7941-BBD0-10888061F5D0}" destId="{9A29B3BF-BDE5-F342-81F6-BE736D6E6915}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{11522EDD-5BD9-C640-B45C-E9A92D0A54BE}" type="presParOf" srcId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" destId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{79D36156-A0FA-6F4D-902A-90E05A885091}" type="presParOf" srcId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}" destId="{C9F8053F-F5AC-1F4C-B8A3-1EC55EA1087C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{0EB0998D-B479-5246-BA03-249C3C54FF63}" type="presParOf" srcId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" destId="{327EBAFF-8EFF-1A47-AA6D-4BDD82FAD7FB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{4B77081C-CE30-A545-948A-976880F3FD0C}" type="presParOf" srcId="{327EBAFF-8EFF-1A47-AA6D-4BDD82FAD7FB}" destId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{EA3776EC-9782-EB4B-BE5B-B81770AF6EB4}" type="presParOf" srcId="{327EBAFF-8EFF-1A47-AA6D-4BDD82FAD7FB}" destId="{8B98E053-23D9-0B45-95D5-0D573C28D1E4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{D16EBF50-B508-C341-828C-C50138693412}" type="presParOf" srcId="{8B98E053-23D9-0B45-95D5-0D573C28D1E4}" destId="{C5128DC7-E373-FD41-B510-078D55A53D58}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{76445C22-9206-574C-AE7E-14074BD3866E}" type="presParOf" srcId="{C5128DC7-E373-FD41-B510-078D55A53D58}" destId="{477EC349-E985-6345-BBF4-CEE93E7A5EDA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0EB969E6-0729-A44B-9F2A-B6387FC601B2}" type="presParOf" srcId="{8B98E053-23D9-0B45-95D5-0D573C28D1E4}" destId="{2DA0B815-D6FA-E545-9472-41AF694DB7F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{79A120FC-E6D6-2C4A-B907-516E0CD03D64}" type="presParOf" srcId="{2DA0B815-D6FA-E545-9472-41AF694DB7F8}" destId="{0F0BFF25-570A-DC4E-9B71-267713BF3457}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{59B38085-C248-3947-98CF-52A00C377393}" type="presParOf" srcId="{2DA0B815-D6FA-E545-9472-41AF694DB7F8}" destId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B606D784-75D0-FE4A-8801-101538D23D63}" type="presParOf" srcId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" destId="{60F4B3EC-5504-2747-990F-0F9FEF35D036}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A618B955-E04D-604F-8931-2C81E25B3D0E}" type="presParOf" srcId="{60F4B3EC-5504-2747-990F-0F9FEF35D036}" destId="{D1AD57CD-B6C2-634C-9D0D-103B09396288}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{84F864C0-75F5-DB4D-9F86-B8FB658B70D7}" type="presParOf" srcId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" destId="{EE88C9FF-3954-8140-AB46-00C4F5C27580}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0C5008E0-2D9D-F041-8A28-BDC3D856D831}" type="presParOf" srcId="{EE88C9FF-3954-8140-AB46-00C4F5C27580}" destId="{E3A23162-DB0F-3A46-923F-328F750E0CD2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{59F36EE1-A4E5-2546-B633-D18ADC7C9571}" type="presParOf" srcId="{EE88C9FF-3954-8140-AB46-00C4F5C27580}" destId="{CC05F168-3DE1-234A-BF96-5B177F069C11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{72C0B6AB-64C0-9C40-B59C-5311FB254B17}" type="presParOf" srcId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" destId="{0847C7A6-9134-7E43-B801-BDAFEEA4AFFC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{93CE8A4D-EC5B-D346-BEA8-FC3755D89C72}" type="presParOf" srcId="{0847C7A6-9134-7E43-B801-BDAFEEA4AFFC}" destId="{804658E4-85AA-2643-951B-A2437AF59340}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{8D0544DD-CBB6-E640-84E7-B89B1B394555}" type="presParOf" srcId="{0A687712-1D01-5E40-928F-8A4C7EEDADBB}" destId="{AAF30EF8-5A09-1749-AF76-0E4FF73207F7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9672B1FE-58D3-C647-BFFF-8666F2A39AD2}" type="presParOf" srcId="{AAF30EF8-5A09-1749-AF76-0E4FF73207F7}" destId="{9CFED002-91F5-524A-8BC7-489CB53E64DC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B97AAD60-C746-C043-84D2-619CE538B5D6}" type="presParOf" srcId="{AAF30EF8-5A09-1749-AF76-0E4FF73207F7}" destId="{706788AA-8682-7B49-A26C-C5C809809431}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{0B9C28E5-883C-674C-8373-92EC3BD43336}" type="presParOf" srcId="{706788AA-8682-7B49-A26C-C5C809809431}" destId="{48FB32D7-4409-B145-8109-CCF0B5A42C26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{A19D2AD7-5C45-6542-A8AC-3509F6F6E53E}" type="presParOf" srcId="{48FB32D7-4409-B145-8109-CCF0B5A42C26}" destId="{141CD360-0854-B342-BFC7-05907D232FDB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B55C2FF1-89D7-3E45-8992-AD5ED3120C0D}" type="presParOf" srcId="{706788AA-8682-7B49-A26C-C5C809809431}" destId="{AEE7394F-C828-F945-AE66-21349779FF50}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C45518B0-C527-304E-8529-D45A8C80F829}" type="presParOf" srcId="{AEE7394F-C828-F945-AE66-21349779FF50}" destId="{8BEFDFB3-08E5-2E4D-9842-D7B918DF73E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{97BE39CB-13EB-A74B-A067-65BD41AD28CB}" type="presParOf" srcId="{AEE7394F-C828-F945-AE66-21349779FF50}" destId="{840145DE-D135-F843-97FD-635B8122E17E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CCFABCD8-54A0-C34C-BD5B-FB9EB2AD90C3}" type="presParOf" srcId="{706788AA-8682-7B49-A26C-C5C809809431}" destId="{603EC75F-9626-1D41-8E56-9D84ECCC9C73}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{36AEA420-09FE-0A4E-BC27-42512DD159BD}" type="presParOf" srcId="{603EC75F-9626-1D41-8E56-9D84ECCC9C73}" destId="{12A25052-8F0B-2843-B4E9-4FE78AFB422C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9CE5A08B-4CAD-1348-BD94-35D7E092B15C}" type="presParOf" srcId="{706788AA-8682-7B49-A26C-C5C809809431}" destId="{85944BD7-89FF-F846-922C-BEB25E7C3576}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B002B7C4-8F98-2D4F-B133-E64C319CECA5}" type="presParOf" srcId="{85944BD7-89FF-F846-922C-BEB25E7C3576}" destId="{65F87129-91F9-FA41-ABA9-67B275B73A54}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{54A3A87B-229E-1040-94C2-08DDCEFA8028}" type="presParOf" srcId="{85944BD7-89FF-F846-922C-BEB25E7C3576}" destId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E5B8F868-D732-A448-A516-476A8A8B5BBC}" type="presParOf" srcId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" destId="{E1A8DF9C-E03C-CF47-956B-F7DED6CF3F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F3288AFE-D967-404D-B10F-B49EFB5C97AA}" type="presParOf" srcId="{E1A8DF9C-E03C-CF47-956B-F7DED6CF3F55}" destId="{2A8CA766-B3B4-5140-8489-6A356D455C84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{B5BD677A-4398-7743-B342-F4404EB95CD1}" type="presParOf" srcId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" destId="{18DEF72F-7C9E-8B42-BC98-B3453BE06AD6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{6B8621D5-FE07-0145-9169-95E3F651AE9F}" type="presParOf" srcId="{18DEF72F-7C9E-8B42-BC98-B3453BE06AD6}" destId="{643F9B49-72D2-4F4B-8E03-8588AB96C1D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CE922E7F-F2D3-7042-819E-EFE633B3BCE8}" type="presParOf" srcId="{18DEF72F-7C9E-8B42-BC98-B3453BE06AD6}" destId="{2DC5E9D4-01A7-1D4E-AD54-3F4B40F9A31A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F570F48E-A877-F44F-AF2C-C96C626BE13E}" type="presParOf" srcId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" destId="{10AB5BAD-2115-2E49-A838-DF501E4E0972}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{67EE5A95-35AA-904E-9EC2-0BCD7C006456}" type="presParOf" srcId="{10AB5BAD-2115-2E49-A838-DF501E4E0972}" destId="{F01F3D6D-EC1B-8640-A110-7F8200634A97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{27E1BE8F-33AE-114C-A598-81CAE70B7E29}" type="presParOf" srcId="{FBE229AD-397D-2C4E-B1AD-7E3D521F5D8F}" destId="{F2C153D7-2F15-8C45-8E41-A967BDDEC5F9}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{DB3155A2-F852-3547-9965-7F285B62CE28}" type="presParOf" srcId="{F2C153D7-2F15-8C45-8E41-A967BDDEC5F9}" destId="{5A9151A4-45A3-9D41-941B-5A071337A694}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{44C86BF2-6622-4845-BE12-AD04E4527A1F}" type="presParOf" srcId="{F2C153D7-2F15-8C45-8E41-A967BDDEC5F9}" destId="{319AE719-17E5-B945-AC09-568306B27BEB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{E4C6E0A8-0E99-D142-91C6-0205A89A9EF9}" type="presParOf" srcId="{319AE719-17E5-B945-AC09-568306B27BEB}" destId="{3D8875E6-9DD2-7B43-8DB5-85C4DF040CE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{5AF2632D-2268-554C-90BA-3CE0A1599C8F}" type="presParOf" srcId="{3D8875E6-9DD2-7B43-8DB5-85C4DF040CE4}" destId="{4512BEF1-E77A-0540-95F8-A94CF0054737}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{22617889-9ACB-E04C-B0AF-2E47A065B1EC}" type="presParOf" srcId="{319AE719-17E5-B945-AC09-568306B27BEB}" destId="{D23A62A4-CDDB-DB41-8C76-11987C0D6D07}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{41DE8CB7-8568-0E4A-ADC8-BB308DB8E342}" type="presParOf" srcId="{D23A62A4-CDDB-DB41-8C76-11987C0D6D07}" destId="{F2800870-9BC2-3347-8CEA-435EF0D70FC2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{F689539A-6D57-254F-A363-11D106A97ED4}" type="presParOf" srcId="{D23A62A4-CDDB-DB41-8C76-11987C0D6D07}" destId="{83F0D9D6-21C7-B248-9559-357524A594E4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{96E32BC9-17A0-0648-B3AC-F0B2894E4171}" type="presParOf" srcId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" destId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{62F58E9D-6FD4-344A-BE63-A6CCD42070B5}" type="presParOf" srcId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}" destId="{E4F6F814-5E22-4A42-BAF8-4A7620B71CB8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{94736D11-B31D-1D43-8C4C-92D955D0D101}" type="presParOf" srcId="{B448D322-33A0-6F4C-94E1-2BA8F47D0D0D}" destId="{A47DF023-C9E7-3B43-912C-6414D62A3608}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{A6D98E70-5687-3D4C-A864-FC559C05AB09}" type="presParOf" srcId="{A47DF023-C9E7-3B43-912C-6414D62A3608}" destId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{55842BE0-7C9F-EB41-817F-0BF0DE392C51}" type="presParOf" srcId="{A47DF023-C9E7-3B43-912C-6414D62A3608}" destId="{857497A5-A569-3045-846F-F8F927FCAD5A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{1617BEC4-C6B3-DC4F-8DFB-BDA604010BDB}" type="presParOf" srcId="{857497A5-A569-3045-846F-F8F927FCAD5A}" destId="{4B0DEC3A-E2E9-2745-ABE2-C92292925769}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{7F329CB9-0763-EA4C-8D42-E7FC005D4C3E}" type="presParOf" srcId="{4B0DEC3A-E2E9-2745-ABE2-C92292925769}" destId="{C5B0190F-40BF-EE44-8075-BD174BF2611F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{D3205413-31A7-E540-A6AB-D250DDF5BE34}" type="presParOf" srcId="{857497A5-A569-3045-846F-F8F927FCAD5A}" destId="{C8C1B508-97B7-2241-81EB-37C2B9C4A071}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{81E95F34-3484-9F41-8459-A34B9DF391D8}" type="presParOf" srcId="{C8C1B508-97B7-2241-81EB-37C2B9C4A071}" destId="{C6EFE6FD-797D-924C-BD2A-F9D929E1CA93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
-    <dgm:cxn modelId="{72E73754-7512-D34F-B434-D1DE983F5880}" type="presParOf" srcId="{C8C1B508-97B7-2241-81EB-37C2B9C4A071}" destId="{5ABF7972-D5ED-F64E-8C3E-1546A8099084}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{5EEB5088-7DC9-0E4E-95C4-97BC9644FBB1}" type="presParOf" srcId="{DCD2EB7B-C116-AE41-BB0D-96D6CC5FD504}" destId="{742102B7-30E9-024E-9605-EEE4B9654A68}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{1690AC80-12DC-804B-8C68-A0A4D7A4424D}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{D9D1E29F-9CDA-D34D-A913-0614D8867E12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{EBCAFD69-46FA-5945-8FF1-48BA441A12E6}" type="presParOf" srcId="{D9D1E29F-9CDA-D34D-A913-0614D8867E12}" destId="{10EFFA20-D4FA-1643-A709-8B9826EC80BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
@@ -1560,6 +2443,21 @@
     <dgm:cxn modelId="{9CCF1906-B535-9242-A90F-0901495EF329}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{ECC07720-BEEE-B544-88FB-476F27A8ECBA}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{2D0D39B3-CB55-144B-A392-ED6E84F30535}" type="presParOf" srcId="{ECC07720-BEEE-B544-88FB-476F27A8ECBA}" destId="{AB0BAD8A-2FB5-9342-B416-49E7257E3405}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
     <dgm:cxn modelId="{9EE3EB8E-1484-2D4B-9002-DFE891DD7010}" type="presParOf" srcId="{ECC07720-BEEE-B544-88FB-476F27A8ECBA}" destId="{3CDA8B0E-045B-444C-A89B-90AB0CEBBFAB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{685879AF-0FC0-0E47-9634-D300C31A365D}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{6F35236F-F109-C948-B2A7-52E65218C519}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4F7BB91F-262B-BD45-B363-B73050A97064}" type="presParOf" srcId="{6F35236F-F109-C948-B2A7-52E65218C519}" destId="{38D78505-440A-004C-B9BE-35BC13F016C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{1DDB7820-2D65-994F-BD76-058B46FF392C}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{1A7B096B-89CF-1146-A505-8B4D1AD5B9CF}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{C8BE6939-CA7F-E746-AC8C-2E8575FED591}" type="presParOf" srcId="{1A7B096B-89CF-1146-A505-8B4D1AD5B9CF}" destId="{52715653-6554-8C4C-99D8-E99D40A91C78}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{12C4B336-E6D0-3845-B897-C921E2265872}" type="presParOf" srcId="{1A7B096B-89CF-1146-A505-8B4D1AD5B9CF}" destId="{51D9F27B-AE9B-9542-9EF2-3B442434BC59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{FBE47161-15E0-3C46-861F-A4669D1A4120}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{6EBDE070-0E1D-E64F-8A26-697DFCF8D2B8}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2B5FDE03-1CFE-8644-8ADC-40C60C7605F3}" type="presParOf" srcId="{6EBDE070-0E1D-E64F-8A26-697DFCF8D2B8}" destId="{5CE179F5-1A77-FD46-A9BB-6D625F4A40AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{681B9C0F-0E81-CF41-8920-4F75A8D5BF27}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{138BBCDD-3429-5041-BFD1-19FA07924CB3}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{4FCFFBBA-1C7B-E04D-96EF-054AEEA9ACA7}" type="presParOf" srcId="{138BBCDD-3429-5041-BFD1-19FA07924CB3}" destId="{AE306CB4-A08A-F940-BAD0-EF7D741A5BB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{2B47D6FF-C20C-6E40-A4C9-EDCA1625C074}" type="presParOf" srcId="{138BBCDD-3429-5041-BFD1-19FA07924CB3}" destId="{8AA9AD4C-1230-EC40-8183-B17307157DE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{CEA5BE95-CBB5-8C42-B822-00BF94DE123A}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{21B76C83-53E1-8D47-90C6-86FE2AA23EA8}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{AFB07973-830C-0243-A839-89DB7F3E1884}" type="presParOf" srcId="{21B76C83-53E1-8D47-90C6-86FE2AA23EA8}" destId="{626AC8E0-05B6-1F41-82E0-8705E5C56CA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{001CD514-C7DC-DC4A-AE06-FC7592D85856}" type="presParOf" srcId="{742102B7-30E9-024E-9605-EEE4B9654A68}" destId="{7E48C6E6-C30E-AE43-A746-6126628BC211}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{30D369B0-64C8-2B41-BB81-298C7EEE55D5}" type="presParOf" srcId="{7E48C6E6-C30E-AE43-A746-6126628BC211}" destId="{A09B1F7D-C13D-E14A-B494-C12E60DBA081}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
+    <dgm:cxn modelId="{9C09E73A-70DD-A143-8360-64EE9592F707}" type="presParOf" srcId="{7E48C6E6-C30E-AE43-A746-6126628BC211}" destId="{D49342E3-2E31-434E-80F2-4EAB6633579B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy5"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -1579,6 +2477,225 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{A09B1F7D-C13D-E14A-B494-C12E60DBA081}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7513478" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7513478" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AE306CB4-A08A-F940-BAD0-EF7D741A5BB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6268323" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6268323" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{52715653-6554-8C4C-99D8-E99D40A91C78}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5023167" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5023167" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
     <dsp:sp modelId="{AB0BAD8A-2FB5-9342-B416-49E7257E3405}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
@@ -1586,8 +2703,80 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3553792" y="0"/>
-          <a:ext cx="1014233" cy="2743200"/>
+          <a:off x="3778011" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Prediction Searching</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3778011" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{48B19731-57BA-A04C-B7A3-99D343277252}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2532856" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1627,12 +2816,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1644,25 +2833,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" kern="1200"/>
-            <a:t>Prediction</a:t>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Searching</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3553792" y="0"/>
-        <a:ext cx="1014233" cy="822960"/>
+        <a:off x="2532856" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{48B19731-57BA-A04C-B7A3-99D343277252}">
+    <dsp:sp modelId="{8C9DA1E2-BCF8-7F40-83B8-7C7391D41A73}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2370519" y="0"/>
-          <a:ext cx="1014233" cy="2743200"/>
+          <a:off x="1287700" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1670,12 +2859,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:tint val="40000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -1702,12 +2888,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1718,23 +2904,26 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1500" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Cleaning</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2370519" y="0"/>
-        <a:ext cx="1014233" cy="822960"/>
+        <a:off x="1287700" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8C9DA1E2-BCF8-7F40-83B8-7C7391D41A73}">
+    <dsp:sp modelId="{10EFFA20-D4FA-1643-A709-8B9826EC80BA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1187246" y="0"/>
-          <a:ext cx="1014233" cy="2743200"/>
+          <a:off x="42544" y="0"/>
+          <a:ext cx="1067276" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1742,12 +2931,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:tint val="40000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -1774,12 +2960,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="113792" tIns="113792" rIns="113792" bIns="113792" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+          <a:pPr lvl="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1791,25 +2977,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" kern="1200"/>
-            <a:t>Searching</a:t>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Input</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1187246" y="0"/>
-        <a:ext cx="1014233" cy="822960"/>
+        <a:off x="42544" y="0"/>
+        <a:ext cx="1067276" cy="822960"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{10EFFA20-D4FA-1643-A709-8B9826EC80BA}">
+    <dsp:sp modelId="{B8FDCBAB-54DE-C041-8A27-A5E044BA33D4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3973" y="0"/>
-          <a:ext cx="1014233" cy="2743200"/>
+          <a:off x="131484" y="1378015"/>
+          <a:ext cx="889396" cy="444698"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1817,12 +3003,8 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:tint val="40000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -1840,21 +3022,23 @@
         <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="3">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef idx="minor"/>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1866,109 +3050,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" kern="1200"/>
-            <a:t>Input</a:t>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>How are you?</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3973" y="0"/>
-        <a:ext cx="1014233" cy="822960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B8FDCBAB-54DE-C041-8A27-A5E044BA33D4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="88493" y="1516917"/>
-          <a:ext cx="845194" cy="422597"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
-            <a:t>How are you</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="100870" y="1529294"/>
-        <a:ext cx="820440" cy="397843"/>
+        <a:off x="144509" y="1391040"/>
+        <a:ext cx="863346" cy="418648"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1FD1ECD5-A72E-6C46-80CF-EA4376E9F1DA}">
@@ -1978,8 +3067,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="806720" y="1471357"/>
-          <a:ext cx="592013" cy="27729"/>
+          <a:off x="887273" y="1330073"/>
+          <a:ext cx="622974" cy="29179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1990,10 +3079,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="13864"/>
+                <a:pt x="0" y="14589"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="592013" y="13864"/>
+                <a:pt x="622974" y="14589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2046,8 +3135,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1087926" y="1470422"/>
-        <a:ext cx="29600" cy="29600"/>
+        <a:off x="1183186" y="1329089"/>
+        <a:ext cx="31148" cy="31148"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{91E5DD8F-C2A7-514F-9A95-1B1C1B650421}">
@@ -2057,41 +3146,19 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1271766" y="1030930"/>
-          <a:ext cx="845194" cy="422597"/>
+          <a:off x="1376640" y="866612"/>
+          <a:ext cx="889396" cy="444698"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 10000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2118,12 +3185,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2134,23 +3201,26 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>how</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1284143" y="1043307"/>
-        <a:ext cx="820440" cy="397843"/>
+        <a:off x="1389665" y="879637"/>
+        <a:ext cx="863346" cy="418648"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0A730E32-8AC4-C541-A781-8E5B73137DF5}">
+    <dsp:sp modelId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2116961" y="1228364"/>
-          <a:ext cx="338077" cy="27729"/>
+          <a:off x="1020881" y="1585775"/>
+          <a:ext cx="355758" cy="29179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2161,10 +3231,162 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="13864"/>
+                <a:pt x="0" y="14589"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="338077" y="13864"/>
+                <a:pt x="355758" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1189866" y="1591471"/>
+        <a:ext cx="17787" cy="17787"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1376640" y="1378015"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>are</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1389665" y="1391040"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5128DC7-E373-FD41-B510-078D55A53D58}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2266037" y="1585775"/>
+          <a:ext cx="355758" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="355758" y="14589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2217,52 +3439,30 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2277548" y="1233776"/>
-        <a:ext cx="16903" cy="16903"/>
+        <a:off x="2435022" y="1591471"/>
+        <a:ext cx="17787" cy="17787"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8EECDD60-1ED6-0C49-BC2B-8895FDEB163B}">
+    <dsp:sp modelId="{0F0BFF25-570A-DC4E-9B71-267713BF3457}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2455038" y="1030930"/>
-          <a:ext cx="845194" cy="422597"/>
+          <a:off x="2621795" y="1378015"/>
+          <a:ext cx="889396" cy="444698"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 10000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2289,12 +3489,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2305,23 +3505,26 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>4-grams</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2467415" y="1043307"/>
-        <a:ext cx="820440" cy="397843"/>
+        <a:off x="2634820" y="1391040"/>
+        <a:ext cx="863346" cy="418648"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{0538F700-A2C0-8C4D-B36E-972C79445133}">
+    <dsp:sp modelId="{60F4B3EC-5504-2747-990F-0F9FEF35D036}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3300233" y="1228364"/>
-          <a:ext cx="338077" cy="27729"/>
+        <a:xfrm rot="19457599">
+          <a:off x="3470013" y="1457924"/>
+          <a:ext cx="438118" cy="29179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2332,10 +3535,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="13864"/>
+                <a:pt x="0" y="14589"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="338077" y="13864"/>
+                <a:pt x="438118" y="14589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2388,52 +3591,30 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3460820" y="1233776"/>
-        <a:ext cx="16903" cy="16903"/>
+        <a:off x="3678119" y="1461561"/>
+        <a:ext cx="21905" cy="21905"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{F7F88050-8B68-0C4C-A377-E8E2EB6A9DB1}">
+    <dsp:sp modelId="{E3A23162-DB0F-3A46-923F-328F750E0CD2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638311" y="1030930"/>
-          <a:ext cx="845194" cy="422597"/>
+          <a:off x="3866951" y="1122314"/>
+          <a:ext cx="889396" cy="444698"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 10000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2460,12 +3641,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2476,23 +3657,27 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3650688" y="1043307"/>
-        <a:ext cx="820440" cy="397843"/>
+        <a:off x="3879976" y="1135339"/>
+        <a:ext cx="863346" cy="418648"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{74886D1A-BB0A-344F-9A44-D29E2BC6B4E2}">
+    <dsp:sp modelId="{0847C7A6-9134-7E43-B801-BDAFEEA4AFFC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="933688" y="1714351"/>
-          <a:ext cx="338077" cy="27729"/>
+        <a:xfrm rot="2142401">
+          <a:off x="3470013" y="1713626"/>
+          <a:ext cx="438118" cy="29179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2503,10 +3688,931 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="13864"/>
+                <a:pt x="0" y="14589"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="338077" y="13864"/>
+                <a:pt x="438118" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3678119" y="1717263"/>
+        <a:ext cx="21905" cy="21905"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9CFED002-91F5-524A-8BC7-489CB53E64DC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3866951" y="1633717"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>3-grams</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3879976" y="1646742"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{48FB32D7-4409-B145-8109-CCF0B5A42C26}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="4715168" y="1713626"/>
+          <a:ext cx="438118" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="438118" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4923274" y="1717263"/>
+        <a:ext cx="21905" cy="21905"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8BEFDFB3-08E5-2E4D-9842-D7B918DF73E6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5112107" y="1378015"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5125132" y="1391040"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{603EC75F-9626-1D41-8E56-9D84ECCC9C73}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="4715168" y="1969327"/>
+          <a:ext cx="438118" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="438118" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4923274" y="1972964"/>
+        <a:ext cx="21905" cy="21905"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{65F87129-91F9-FA41-ABA9-67B275B73A54}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5112107" y="1889419"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>2-grams</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5125132" y="1902444"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E1A8DF9C-E03C-CF47-956B-F7DED6CF3F55}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="5960324" y="1969327"/>
+          <a:ext cx="438118" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="438118" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6168430" y="1972964"/>
+        <a:ext cx="21905" cy="21905"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{643F9B49-72D2-4F4B-8E03-8588AB96C1D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6357262" y="1633717"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Prediction</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6370287" y="1646742"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{10AB5BAD-2115-2E49-A838-DF501E4E0972}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="5960324" y="2225029"/>
+          <a:ext cx="438118" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="438118" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6168430" y="2228666"/>
+        <a:ext cx="21905" cy="21905"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5A9151A4-45A3-9D41-941B-5A071337A694}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6357262" y="2145120"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-grams</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6370287" y="2158145"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3D8875E6-9DD2-7B43-8DB5-85C4DF040CE4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7246659" y="2352880"/>
+          <a:ext cx="355758" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="355758" y="14589"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7415645" y="2358576"/>
+        <a:ext cx="17787" cy="17787"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F2800870-9BC2-3347-8CEA-435EF0D70FC2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7602418" y="2145120"/>
+          <a:ext cx="889396" cy="444698"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Prediction</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7615443" y="2158145"/>
+        <a:ext cx="863346" cy="418648"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="887273" y="1841476"/>
+          <a:ext cx="622974" cy="29179"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14589"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="622974" y="14589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2559,52 +4665,30 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1094275" y="1719764"/>
-        <a:ext cx="16903" cy="16903"/>
+        <a:off x="1183186" y="1840492"/>
+        <a:ext cx="31148" cy="31148"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9694FC94-5C85-9C47-A7F3-D661A2FF720D}">
+    <dsp:sp modelId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1271766" y="1516917"/>
-          <a:ext cx="845194" cy="422597"/>
+          <a:off x="1376640" y="1889419"/>
+          <a:ext cx="889396" cy="444698"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 10000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2631,12 +4715,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2648,356 +4732,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
-            <a:t>a</a:t>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>you</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1284143" y="1529294"/>
-        <a:ext cx="820440" cy="397843"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{DB8486C8-5FC0-FF47-B90F-AAAEAD0E3B12}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="3310531">
-          <a:off x="806720" y="1957344"/>
-          <a:ext cx="592013" cy="27729"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="13864"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="592013" y="13864"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1087926" y="1956409"/>
-        <a:ext cx="29600" cy="29600"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{844DE36C-1F58-984D-81A5-76E23C32B2E3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1271766" y="2002904"/>
-          <a:ext cx="845194" cy="422597"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1284143" y="2015281"/>
-        <a:ext cx="820440" cy="397843"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4B0DEC3A-E2E9-2745-ABE2-C92292925769}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2116961" y="2200338"/>
-          <a:ext cx="338077" cy="27729"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="13864"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="338077" y="13864"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2277548" y="2205751"/>
-        <a:ext cx="16903" cy="16903"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C6EFE6FD-797D-924C-BD2A-F9D929E1CA93}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2455038" y="2002904"/>
-          <a:ext cx="845194" cy="422597"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2467415" y="2015281"/>
-        <a:ext cx="820440" cy="397843"/>
+        <a:off x="1389665" y="1902444"/>
+        <a:ext cx="863346" cy="418648"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4616,16 +6358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4971,8 +6713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
